--- a/NformTester/NformTester/Keywordscripts/900.30.020_EditReadwirteDataPoint.xlsx
+++ b/NformTester/NformTester/Keywordscripts/900.30.020_EditReadwirteDataPoint.xlsx
@@ -3771,71 +3771,71 @@
     <t>My System Location</t>
   </si>
   <si>
+    <t>Script Info</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Running Range</t>
+  </si>
+  <si>
+    <t>System Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parametrics_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputKeys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{A}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script Info</t>
-  </si>
-  <si>
-    <t>Script Data</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Running Range</t>
-  </si>
-  <si>
-    <t>System Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parametrics_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InputKeys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"{A}"</t>
+    <t>$NAME_SNMP_GXT_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4005,7 +4005,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4016,8 +4016,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4056,10 +4059,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
@@ -4369,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4388,10 +4393,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>789</v>
@@ -4432,10 +4437,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4456,10 +4461,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4490,10 +4495,10 @@
     </row>
     <row r="4" spans="1:14" ht="15">
       <c r="A4" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4514,7 +4519,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B5" s="8">
         <v>41815</v>
@@ -4535,11 +4540,11 @@
       <c r="H5" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>836</v>
+      <c r="I5" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>854</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>822</v>
@@ -4554,10 +4559,10 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4606,10 +4611,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>848</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>850</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -4659,8 +4664,8 @@
       <c r="H9" s="9">
         <v>2</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>836</v>
+      <c r="I9" s="16" t="s">
+        <v>854</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -4715,7 +4720,7 @@
         <v>56</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="4"/>
@@ -4803,13 +4808,13 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>853</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="4"/>
@@ -5001,8 +5006,8 @@
       <c r="H23" s="9">
         <v>2</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>836</v>
+      <c r="I23" s="16" t="s">
+        <v>854</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -5166,10 +5171,10 @@
         <v>608</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -28012,39 +28017,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B5" s="8">
         <v>41815</v>
@@ -28052,10 +28057,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -28068,7 +28073,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B8" s="7"/>
     </row>
